--- a/biology/Zoologie/Araniella_cucurbitina/Araniella_cucurbitina.xlsx
+++ b/biology/Zoologie/Araniella_cucurbitina/Araniella_cucurbitina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Araniella cucurbitina est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Araniella cucurbitina est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 En français elle est nommée Araignée courge ou Épeire concombre.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en zone paléarctique[1], dans les régions tempérées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en zone paléarctique, dans les régions tempérées.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Araniella cucurbitina habite les parcs et jardins, en particulier sur les lilas et les rosiers, dans les buissons, à la lisière des forêts.
 </t>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 3,5 à 4,5 mm et les femelles de 4,5 à 9,5 mm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 3,5 à 4,5 mm et les femelles de 4,5 à 9,5 mm.
 Son abdomen est vert pistache avec 4 points noirs sur les côtés, ce qui permet de la distinguer de ses cousines. Les adultes portent une tache rouge à l'extrémité inférieure de l'abdomen.
 Le camouflage de l'araignée courge change avec la couleur de la végétation. À leur naissance, en automne, les jeunes sont de couleur rouge brique puis virent au brun sale pendant l'hiver. La coloration verte apparaît au printemps, à l'âge adulte.
 Sa toile, géométrique mais de forme irrégulière, a une dizaine de centimètres de diamètre. Elle comporte entre 15 et 30 rayons. L'araignée se tient généralement au milieu dans l'attente d'une proie.
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Clerck, 1757 : Svenska spindlar, uti sina hufvud-slågter indelte samt under några och sextio särskildte arter beskrefne och med illuminerade figurer uplyste. Stockholmiae, p. 1-154.</t>
         </is>
